--- a/day07/data/다나와_무선청소기_결과.xlsx
+++ b/day07/data/다나와_무선청소기_결과.xlsx
@@ -10513,7 +10513,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -10874,7 +10874,7 @@
   <cols>
     <col min="1" max="1" style="3" width="75.14785714285713" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="42.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
